--- a/biology/Médecine/Maurice_Mimoun/Maurice_Mimoun.xlsx
+++ b/biology/Médecine/Maurice_Mimoun/Maurice_Mimoun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Mimoun est un chirurgien et écrivain français, né le 13 avril 1955  à Constantine, spécialisé en chirurgie plastique, esthétique et reconstructrice, et dans le traitement des grands brûlés.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Mimoun naît en 1955 à Constantine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Mimoun naît en 1955 à Constantine.
 En 1979, il est titularisé Interne des Hôpitaux de Paris
 En 1989, il est nommé Professeur des universités – praticien hospitalier / Professeur de Médecine
-En 1993, il devient à la fois, chef de service du centre des grands brûlés de l'hôpital Saint-Antoine et chef du service de chirurgie plastique, reconstructrice, esthétique de l'hôpital Rothschild[1]. Par la fusion de ces deux services, il est devenu, lors de son inauguration par le ministre de la Santé Marisol Touraine le 7 juin 2012, chef du nouveau service de chirurgie plastique, reconstructrice, esthétique et de brûlologie de l'hôpital Saint-Louis de Paris.
+En 1993, il devient à la fois, chef de service du centre des grands brûlés de l'hôpital Saint-Antoine et chef du service de chirurgie plastique, reconstructrice, esthétique de l'hôpital Rothschild. Par la fusion de ces deux services, il est devenu, lors de son inauguration par le ministre de la Santé Marisol Touraine le 7 juin 2012, chef du nouveau service de chirurgie plastique, reconstructrice, esthétique et de brûlologie de l'hôpital Saint-Louis de Paris.
 Maurice Mimoun est président de la Société française d’étude et de traitement des brûlés, il est aussi responsable du DESC de chirurgie plastique, responsable du diplôme interuniversitaire « traitement des brûlures », membre d’une mission ministérielle pour la construction d’un centre de brûlés au Pakistan en 1998, et depuis les années 2000 membre du conseil d’administration de l’association Children’s Action, ONG pour l’aide aux enfants brûlés au Viêt Nam.
-Maurice Mimoun est l'auteur de L’Impossible Limite. Carnets d'un chirurgien (1996), S’empêcher d’en faire trop (2004)[2], Une vie plus une vie (2013)) roman recommandé par Milan Kundera, La mort peut attendre (2015) et de nombreuses communications scientifiques.
+Maurice Mimoun est l'auteur de L’Impossible Limite. Carnets d'un chirurgien (1996), S’empêcher d’en faire trop (2004), Une vie plus une vie (2013)) roman recommandé par Milan Kundera, La mort peut attendre (2015) et de nombreuses communications scientifiques.
 En 2013, il prend la direction du service de chirurgie plastique de Pontoise  
-En septembre 2016, le service des grands brûlés de l’hôpital Saint-Louis qu'il dirige avec le professeur Alexandre Mebazaa réalise une première mondiale : une greffe de peau sur un homme brûlé sur quasi-totalité du corps, en prélevant des lambeaux de peau sur son frère jumeau homozygote[3].
+En septembre 2016, le service des grands brûlés de l’hôpital Saint-Louis qu'il dirige avec le professeur Alexandre Mebazaa réalise une première mondiale : une greffe de peau sur un homme brûlé sur quasi-totalité du corps, en prélevant des lambeaux de peau sur son frère jumeau homozygote.
 Il est élu Héros de l'année 2016 par le journal Le Parisien.
 En 2023, il est nommé chef du service de chirurgie plastique et brûlés de l'hôpital Armand Trousseau à l'Assistance Publique - Hopitaux de Paris
 </t>
@@ -551,7 +565,9 @@
           <t>Œuvre littéraire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans L'impossible limite, un premier ouvrage où se mêlent déjà tous les thèmes qui l’habitent, Maurice Mimoun dévoile par bribes son quotidien de chirurgien, mais aussi d’homme sensible et plus que tout attentif à la vie de l’autre. Dans ces pages, l’écrivain questionne et développe la notion de limite, entre le beau et le laid, le normal et le pathologique, le masculin et le féminin, et, surtout, entre la mort et la vie.
 Les carnets du Vietnam plongent le lecteur au cœur d’une mission médicale aussi périlleuse qu’attendrissante. L’écriture de ce journal, chirurgicale et dénuée de toute effusion lyrique, donne à éprouver les difficultés et les écueils de ce que l’on appelle communément l’« humanitaire. » Page après page, on découvre aussi les problématiques morales du chirurgien, motivé par le principe de nécessité, et ayant à cœur de « reconstruire sans détruire ».
@@ -586,10 +602,12 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1983 : Premier prix de la Société française de chirurgie plastique reconstructrice et esthétique[1]
-2004 : Chevalier de la Légion d'honneur[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1983 : Premier prix de la Société française de chirurgie plastique reconstructrice et esthétique
+2004 : Chevalier de la Légion d'honneur.
 2015 : Prix de civisme et solidarité 2015. décerné par le comité français ONG/ONU à l'occasion du 70e anniversaire des Nations unies.
 2016 : Héros de l'année par le journal Le Parisien</t>
         </is>
